--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -53,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,12 +92,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,11 +124,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -141,27 +154,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,222 +474,261 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F23:F24"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43232</v>
+        <v>43439</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1722</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>2150</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>615</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>835</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43281</v>
+        <v>43605</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1822</v>
+        <v>2299</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D13" si="0">C4-C2</f>
-        <v>100</v>
+        <f>C4-C2</f>
+        <v>149</v>
       </c>
       <c r="E4" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F15" si="1">D4*E4</f>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>680.93000000000006</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>841.06000000000006</v>
+      </c>
+      <c r="H4" s="10">
+        <v>841.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>709</v>
+        <v>859</v>
       </c>
       <c r="D5" s="3">
+        <v>67</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>203.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160.13</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43309</v>
+        <v>43675</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>1904</v>
+        <v>2624</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <f>C6-C4</f>
+        <v>325</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="9">
+        <f>D6*E6</f>
+        <v>1459.25</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>1622.06</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1690.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>733</v>
+        <v>954</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>56.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="9">
+        <f>D7*E7</f>
+        <v>162.81</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43337</v>
+        <v>43710</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>2015</v>
+        <v>2810</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>111</v>
+        <f t="shared" ref="D8:D15" si="1">C8-C6</f>
+        <v>186</v>
       </c>
       <c r="E8" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>499.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
+        <v>835.14</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>1027.1099999999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>959.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>771</v>
+        <v>1033</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="E9" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>89.3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="2"/>
+        <v>191.97</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43372</v>
+        <v>43756</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>2091</v>
+        <v>3127</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>317</v>
       </c>
       <c r="E10" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>342</v>
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="2"/>
+        <v>1423.3300000000002</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>1831.5700000000002</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1931.57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -693,40 +737,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>805</v>
+        <v>1201</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>168</v>
       </c>
       <c r="E11" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>79.900000000000006</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="2"/>
+        <v>408.24</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43439</v>
+        <v>43776</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>2150</v>
+        <v>3255</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="E12" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>265.5</v>
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="2"/>
+        <v>574.72</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>737.53</v>
+      </c>
+      <c r="H12" s="10">
+        <v>737.53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,238 +788,94 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>835</v>
+        <v>1268</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="E13" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>70.5</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="2"/>
+        <v>162.81</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43605</v>
+        <v>43901</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>2299</v>
+        <v>3275</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C12</f>
-        <v>149</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E14" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>680.93000000000006</v>
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="3">D14*E14</f>
+        <v>89.800000000000011</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>128.68</v>
+      </c>
+      <c r="H14" s="10">
+        <v>128.68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>859</v>
+        <v>1284</v>
       </c>
       <c r="D15" s="3">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="E15" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>160.13</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="3"/>
+        <v>38.880000000000003</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>43675</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2624</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C14</f>
-        <v>325</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>1459.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>954</v>
-      </c>
-      <c r="D17" s="3">
-        <v>67</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>162.81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>68.040000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>43710</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2810</v>
-      </c>
-      <c r="D19" s="3">
-        <f>C19-C16</f>
-        <v>186</v>
-      </c>
-      <c r="E19" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" ref="F19:F24" si="2">D19*E19</f>
-        <v>835.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1033</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-C17</f>
-        <v>79</v>
-      </c>
-      <c r="E20" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>191.97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>43756</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3127</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-C19</f>
-        <v>317</v>
-      </c>
-      <c r="E21" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="2"/>
-        <v>1423.3300000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1201</v>
-      </c>
-      <c r="D22" s="3">
-        <f>C22-C20</f>
-        <v>168</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="2"/>
-        <v>408.24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>43776</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3255</v>
-      </c>
-      <c r="D23" s="3">
-        <f>C23-C21</f>
-        <v>128</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="2"/>
-        <v>574.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1268</v>
-      </c>
-      <c r="D24" s="3">
-        <f>C24-C22</f>
-        <v>67</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="2"/>
-        <v>162.81</v>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(G4:G13)</f>
+        <v>6059.329999999999</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H4:H13)</f>
+        <v>6159.3499999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
+        <v>100.02000000000044</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,25 +856,76 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3403</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="4">C16-C14</f>
+        <v>128</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>574.72</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>722.95</v>
+      </c>
+      <c r="H16" s="10">
+        <v>722.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1345</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="5"/>
+        <v>148.23000000000002</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <f>SUM(G4:G13)</f>
-        <v>6059.329999999999</v>
-      </c>
-      <c r="H16" s="10">
-        <f>SUM(H4:H13)</f>
-        <v>6159.3499999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="10">
+        <f>SUM(G4:G17)</f>
+        <v>6910.9599999999991</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H4:H17)</f>
+        <v>7010.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>100.02000000000044</v>
       </c>
     </row>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -907,26 +907,77 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3492</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="6">C18-C16</f>
+        <v>89</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>399.61</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>482.23</v>
+      </c>
+      <c r="H18" s="10">
+        <v>382.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1379</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="7"/>
+        <v>82.62</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G4:G17)</f>
-        <v>6910.9599999999991</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H4:H17)</f>
-        <v>7010.98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="10">
+        <f>SUM(G4:G19)</f>
+        <v>7393.1899999999987</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H4:H19)</f>
+        <v>7393.2099999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>100.02000000000044</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>2.0000000000436557E-2</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -141,10 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,7 +470,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H20" sqref="H3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -496,489 +489,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43439</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2150</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>835</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43605</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2299</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>C4-C2</f>
         <v>149</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>4.57</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="0">D4*E4</f>
         <v>680.93000000000006</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>841.06000000000006</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>841.08</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>859</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>67</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2.39</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>160.13</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43675</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2624</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>C6-C4</f>
         <v>325</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>D6*E6</f>
         <v>1459.25</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
         <v>1622.06</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1690.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>954</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>67</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>D7*E7</f>
         <v>162.81</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43710</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2810</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" ref="D8:D15" si="1">C8-C6</f>
         <v>186</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4.49</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>835.14</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
         <v>1027.1099999999999</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>959.07</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1033</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
         <v>191.97</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43756</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>3127</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>4.49</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="2"/>
         <v>1423.3300000000002</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
         <v>1831.5700000000002</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>1931.57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1201</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
         <v>408.24</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43776</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3255</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>4.49</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="2"/>
         <v>574.72</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
         <v>737.53</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>737.53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1268</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="2"/>
         <v>162.81</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43901</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>3275</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>4.49</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="3">D14*E14</f>
         <v>89.800000000000011</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
         <v>128.68</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>128.68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1284</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="3"/>
         <v>38.880000000000003</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43948</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>3403</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="4">C16-C14</f>
         <v>128</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>4.49</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="5">D16*E16</f>
         <v>574.72</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
         <v>722.95</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>722.95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1345</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="5"/>
         <v>148.23000000000002</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43969</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>3492</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:D19" si="6">C18-C16</f>
         <v>89</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>4.49</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="7">D18*E18</f>
         <v>399.61</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f>SUM(F18,F19)</f>
         <v>482.23</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>382.23</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1379</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" si="7"/>
         <v>82.62</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(G4:G19)</f>
-        <v>7393.1899999999987</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H4:H19)</f>
-        <v>7393.2099999999991</v>
+      <c r="A20" s="3">
+        <v>44004</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3608</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="8">C20-C18</f>
+        <v>116</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
+        <v>520.84</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>627.76</v>
+      </c>
+      <c r="H20" s="9">
+        <v>627.76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>2.0000000000436557E-2</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1423</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="9"/>
+        <v>106.92</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -467,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H3:H20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1000,57 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44034</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3669</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="10">C22-C20</f>
+        <v>61</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="11">D22*E22</f>
+        <v>287.31</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>343.40999999999997</v>
+      </c>
+      <c r="H22" s="9">
+        <v>343.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1445</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="11"/>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -467,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1051,6 +1051,57 @@
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44088</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3845</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="12">C24-C22</f>
+        <v>176</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="13">D24*E24</f>
+        <v>828.96</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>964.11</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1058.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1498</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="13"/>
+        <v>135.14999999999998</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -467,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H27" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1102,57 @@
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4047</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="14">C26-C24</f>
+        <v>202</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="15">D26*E26</f>
+        <v>951.42</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>1155.42</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1155.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1578</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -467,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H2:H27"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1153,6 +1153,57 @@
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4102</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="16">C28-C26</f>
+        <v>55</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="17">D28*E28</f>
+        <v>259.05</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>340.65</v>
+      </c>
+      <c r="H28" s="9">
+        <v>340.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1610</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="17"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,6 +634,57 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4206</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>104</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>489.84</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>584.18999999999994</v>
+      </c>
+      <c r="H8" s="8">
+        <v>340.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1647</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="5"/>
+        <v>94.35</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +149,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -661,7 +662,7 @@
         <v>584.18999999999994</v>
       </c>
       <c r="H8" s="8">
-        <v>340.65</v>
+        <v>648.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,6 +686,67 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44410</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4300</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>94</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>466.24</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>543.96</v>
+      </c>
+      <c r="H10" s="8">
+        <v>518.58000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1676</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="7"/>
+        <v>77.72</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="9">
+        <f>SUM(G2:G11)</f>
+        <v>2624.2200000000003</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H2:H11)</f>
+        <v>2663.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/156ee.xlsx
+++ b/sputnik/personal/ee/156ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -457,7 +457,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -739,11 +739,62 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="9">
+      <c r="A12" s="3">
+        <v>44494</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4363</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>63</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>312.48</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>390.20000000000005</v>
+      </c>
+      <c r="H12" s="8">
+        <v>390.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1705</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="9"/>
+        <v>77.72</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="9">
         <f>SUM(G2:G11)</f>
         <v>2624.2200000000003</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H14" s="9">
         <f>SUM(H2:H11)</f>
         <v>2663.4</v>
       </c>
